--- a/application/controllers/excel-templates/Estimate_Sheet.xlsx
+++ b/application/controllers/excel-templates/Estimate_Sheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Blackmelon Advance Technology Co. Pvt. Ltd.</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Date: {estimate:date}</t>
+  </si>
+  <si>
+    <t>Zopper Order ID: {estimate:order_id}</t>
   </si>
   <si>
     <t>Customer Name</t>
@@ -244,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="48">
     <border/>
     <border>
       <left style="medium">
@@ -653,26 +656,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom/>
-    </border>
-    <border>
-      <bottom/>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="88">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -755,14 +743,17 @@
     <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="17" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="24" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -774,10 +765,10 @@
     <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="29" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -805,17 +796,17 @@
     </xf>
     <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="38" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="39" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -825,7 +816,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="42" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -837,28 +828,28 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="43" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="44" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="43" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="45" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="46" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="45" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="47" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -869,9 +860,6 @@
     <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="48" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="49" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="50" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -900,7 +888,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -925,18 +913,18 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -961,18 +949,18 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1224,308 +1212,313 @@
       <c r="Q10" s="41"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" ht="15.0" customHeight="1">
+    <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="33"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="41"/>
       <c r="R11" s="1"/>
     </row>
     <row r="12" ht="15.0" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="36"/>
+      <c r="B12" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="38"/>
+      <c r="J12" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="33"/>
       <c r="R12" s="1"/>
     </row>
     <row r="13" ht="15.0" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="45"/>
-      <c r="J13" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="50"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="1"/>
     </row>
     <row r="14" ht="15.0" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="46"/>
+      <c r="J14" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="51" t="s">
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="51"/>
+    </row>
+    <row r="15" ht="15.0" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="52"/>
-      <c r="M14" s="54" t="s">
+      <c r="I15" s="3"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="27"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="55" t="s">
+      <c r="L15" s="53"/>
+      <c r="M15" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="58" t="s">
+      <c r="N15" s="27"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="59" t="s">
+      <c r="Q15" s="4"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="60"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" ht="28.5" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="61" t="s">
+      <c r="N16" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63" t="s">
+      <c r="O16" s="61"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" ht="28.5" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="64" t="s">
+      <c r="G17" s="63"/>
+      <c r="H17" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="62"/>
-      <c r="M16" s="65" t="s">
+      <c r="J17" s="63"/>
+      <c r="K17" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="64" t="s">
+      <c r="L17" s="63"/>
+      <c r="M17" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="62"/>
-      <c r="P16" s="64" t="s">
+      <c r="N17" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="67"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" s="67"/>
-      <c r="P17" s="69" t="s">
+      <c r="O17" s="63"/>
+      <c r="P17" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="68"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1"/>
-      <c r="B18" s="71" t="s">
+      <c r="O18" s="68"/>
+      <c r="P18" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q18" s="36"/>
+      <c r="Q18" s="25"/>
       <c r="R18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" s="41"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19" s="36"/>
       <c r="R19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="78" t="s">
+      <c r="B20" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="80" t="s">
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="Q20" s="81"/>
+      <c r="Q20" s="41"/>
       <c r="R20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="45"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="85">
-        <v>0.0</v>
-      </c>
-      <c r="Q21" s="25"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="82"/>
       <c r="R21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="51" t="s">
+      <c r="B22" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="4"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="86">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" s="25"/>
       <c r="R22" s="1"/>
     </row>
     <row r="23">
@@ -1534,13 +1527,15 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="88"/>
+      <c r="K23" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="4"/>
       <c r="R23" s="1"/>
     </row>
     <row r="24">
@@ -1549,13 +1544,8 @@
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="4"/>
+      <c r="K24" s="10"/>
+      <c r="Q24" s="9"/>
       <c r="R24" s="1"/>
     </row>
     <row r="25">
@@ -1564,11 +1554,16 @@
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="10"/>
-      <c r="Q25" s="9"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="4"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" ht="3.75" hidden="1" customHeight="1">
+    <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="10"/>
       <c r="G26" s="9"/>
@@ -1578,122 +1573,134 @@
       <c r="Q26" s="9"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" ht="0.75" customHeight="1">
+    <row r="27" ht="3.75" hidden="1" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="10"/>
       <c r="G27" s="9"/>
       <c r="H27" s="10"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="45"/>
+      <c r="K27" s="10"/>
+      <c r="Q27" s="9"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" ht="0.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="71" t="s">
-        <v>39</v>
-      </c>
+      <c r="B28" s="10"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="45"/>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
       <c r="P28" s="19"/>
-      <c r="Q28" s="45"/>
+      <c r="Q28" s="46"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" ht="3.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="46"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" ht="15.0" customHeight="1">
-      <c r="B30" s="89" t="s">
-        <v>40</v>
+    <row r="30" ht="3.75" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" ht="15.0" customHeight="1">
+      <c r="B31" s="87" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="G4:M4"/>
+  <mergeCells count="54">
     <mergeCell ref="F3:N3"/>
+    <mergeCell ref="O3:Q4"/>
+    <mergeCell ref="B8:Q9"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="B2:Q2"/>
     <mergeCell ref="L7:Q7"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="K25:Q28"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K23:Q24"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="B12:G13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="J12:M13"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="N12:Q13"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="G4:M4"/>
     <mergeCell ref="G5:M5"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="O3:Q4"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P14:Q15"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B20:J21"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="B22:G29"/>
+    <mergeCell ref="H22:J29"/>
+    <mergeCell ref="P15:Q16"/>
+    <mergeCell ref="M15:O15"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B14:G15"/>
-    <mergeCell ref="J11:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="N11:Q12"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B11:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B8:Q9"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="K24:Q27"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="K22:Q23"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="B30:Q30"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="B21:G28"/>
-    <mergeCell ref="B19:J20"/>
-    <mergeCell ref="H21:J28"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="H14:J15"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="H15:J16"/>
+    <mergeCell ref="B15:G16"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/application/controllers/excel-templates/Estimate_Sheet.xlsx
+++ b/application/controllers/excel-templates/Estimate_Sheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Blackmelon Advance Technology Co. Pvt. Ltd.</t>
   </si>
@@ -91,16 +91,25 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>{estimate:brand} / {estimate:model_number}</t>
-  </si>
-  <si>
-    <t>Repair - In Warranty</t>
+    <t>{data:brand} / {data:model_number}</t>
+  </si>
+  <si>
+    <t>{data:service_type}</t>
+  </si>
+  <si>
+    <t>{data:taxable_value}</t>
+  </si>
+  <si>
+    <t>{data:igst_rate}</t>
+  </si>
+  <si>
+    <t>{data:igst_tax_amount}</t>
+  </si>
+  <si>
+    <t>{data:total_amount}</t>
   </si>
   <si>
     <t>{estimate:taxable_value}</t>
-  </si>
-  <si>
-    <t>{estimate:igst_rate}</t>
   </si>
   <si>
     <t>{estimate:igst_tax_amount}</t>
@@ -660,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -751,9 +760,6 @@
     </xf>
     <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -796,17 +802,17 @@
     </xf>
     <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="38" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="39" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1214,7 +1220,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1"/>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="37" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="32"/>
@@ -1236,7 +1242,7 @@
     </row>
     <row r="12" ht="15.0" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="3"/>
@@ -1244,17 +1250,17 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="43" t="s">
         <v>12</v>
       </c>
       <c r="I12" s="38"/>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="43" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
       <c r="M12" s="38"/>
-      <c r="N12" s="44" t="s">
+      <c r="N12" s="43" t="s">
         <v>14</v>
       </c>
       <c r="O12" s="32"/>
@@ -1264,19 +1270,19 @@
     </row>
     <row r="13" ht="15.0" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="45"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="47"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="46"/>
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="46"/>
       <c r="O13" s="35"/>
       <c r="P13" s="35"/>
       <c r="Q13" s="36"/>
@@ -1284,7 +1290,7 @@
     </row>
     <row r="14" ht="15.0" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="48" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="24"/>
@@ -1292,49 +1298,49 @@
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="50" t="s">
+      <c r="I14" s="45"/>
+      <c r="J14" s="49" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="50" t="s">
+      <c r="M14" s="45"/>
+      <c r="N14" s="49" t="s">
         <v>18</v>
       </c>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="51"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="50"/>
     </row>
     <row r="15" ht="15.0" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="51" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="52" t="s">
+      <c r="G15" s="52"/>
+      <c r="H15" s="51" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54" t="s">
+      <c r="J15" s="52"/>
+      <c r="K15" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="53"/>
-      <c r="M15" s="55" t="s">
+      <c r="L15" s="52"/>
+      <c r="M15" s="54" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="27"/>
       <c r="O15" s="28"/>
-      <c r="P15" s="56" t="s">
+      <c r="P15" s="55" t="s">
         <v>23</v>
       </c>
       <c r="Q15" s="4"/>
@@ -1342,50 +1348,50 @@
     </row>
     <row r="16">
       <c r="A16" s="1"/>
-      <c r="B16" s="45"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="45"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="44"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="59" t="s">
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="60" t="s">
+      <c r="N16" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="61"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="46"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="45"/>
       <c r="R16" s="1"/>
     </row>
     <row r="17" ht="28.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="64" t="s">
+      <c r="G17" s="62"/>
+      <c r="H17" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="63"/>
-      <c r="K17" s="65" t="s">
+      <c r="J17" s="62"/>
+      <c r="K17" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="63"/>
-      <c r="M17" s="66" t="s">
+      <c r="L17" s="62"/>
+      <c r="M17" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="65" t="s">
+      <c r="N17" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="63"/>
-      <c r="P17" s="65" t="s">
+      <c r="O17" s="62"/>
+      <c r="P17" s="64" t="s">
         <v>31</v>
       </c>
       <c r="Q17" s="9"/>
@@ -1393,36 +1399,36 @@
     </row>
     <row r="18" ht="18.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="66" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="68"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="68"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="O18" s="68"/>
-      <c r="P18" s="70" t="s">
-        <v>31</v>
+      <c r="J18" s="67"/>
+      <c r="K18" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="67"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="67"/>
+      <c r="P18" s="69" t="s">
+        <v>34</v>
       </c>
       <c r="Q18" s="25"/>
       <c r="R18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
-      <c r="B19" s="72" t="s">
-        <v>32</v>
+      <c r="B19" s="71" t="s">
+        <v>35</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -1432,23 +1438,23 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
-      <c r="K19" s="73" t="s">
-        <v>33</v>
+      <c r="K19" s="72" t="s">
+        <v>36</v>
       </c>
       <c r="L19" s="35"/>
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="74" t="s">
-        <v>28</v>
+      <c r="O19" s="47"/>
+      <c r="P19" s="73" t="s">
+        <v>32</v>
       </c>
       <c r="Q19" s="36"/>
       <c r="R19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
-      <c r="B20" s="75" t="s">
-        <v>34</v>
+      <c r="B20" s="74" t="s">
+        <v>37</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1458,22 +1464,22 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="76" t="s">
-        <v>35</v>
+      <c r="K20" s="75" t="s">
+        <v>38</v>
       </c>
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
       <c r="N20" s="40"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="78" t="s">
-        <v>30</v>
+      <c r="O20" s="76"/>
+      <c r="P20" s="77" t="s">
+        <v>33</v>
       </c>
       <c r="Q20" s="41"/>
       <c r="R20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
-      <c r="B21" s="45"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -1481,41 +1487,41 @@
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q21" s="82"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="81"/>
       <c r="R21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
-      <c r="B22" s="83" t="s">
-        <v>37</v>
+      <c r="B22" s="82" t="s">
+        <v>40</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="84"/>
+      <c r="H22" s="83"/>
       <c r="I22" s="3"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="85" t="s">
-        <v>38</v>
+      <c r="K22" s="84" t="s">
+        <v>41</v>
       </c>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="25"/>
-      <c r="P22" s="86">
+      <c r="P22" s="85">
         <v>0.0</v>
       </c>
       <c r="Q22" s="25"/>
@@ -1527,8 +1533,8 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="52" t="s">
-        <v>39</v>
+      <c r="K23" s="51" t="s">
+        <v>42</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -1554,7 +1560,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="84"/>
+      <c r="K25" s="83"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -1589,35 +1595,35 @@
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="45"/>
+      <c r="K28" s="44"/>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
       <c r="P28" s="19"/>
-      <c r="Q28" s="46"/>
+      <c r="Q28" s="45"/>
       <c r="R28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="45"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="44"/>
       <c r="I29" s="19"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="72" t="s">
-        <v>40</v>
+      <c r="J29" s="45"/>
+      <c r="K29" s="71" t="s">
+        <v>43</v>
       </c>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
-      <c r="Q29" s="46"/>
+      <c r="Q29" s="45"/>
       <c r="R29" s="1"/>
     </row>
     <row r="30" ht="3.75" customHeight="1">
@@ -1641,66 +1647,66 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" ht="15.0" customHeight="1">
-      <c r="B31" s="87" t="s">
-        <v>41</v>
+      <c r="B31" s="86" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="O3:Q4"/>
     <mergeCell ref="B8:Q9"/>
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="L7:Q7"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="H15:J16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G16"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="P15:Q16"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="F3:N3"/>
     <mergeCell ref="B3:C4"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="O3:Q4"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="K25:Q28"/>
+    <mergeCell ref="B22:G29"/>
+    <mergeCell ref="H22:J29"/>
+    <mergeCell ref="P22:Q22"/>
     <mergeCell ref="K21:O21"/>
     <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="K23:Q24"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B20:J21"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="K15:L16"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="K25:Q28"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="K23:Q24"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="H14:I14"/>
     <mergeCell ref="B12:G13"/>
     <mergeCell ref="H12:I13"/>
     <mergeCell ref="J12:M13"/>
-    <mergeCell ref="N14:Q14"/>
     <mergeCell ref="N12:Q13"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="L11:Q11"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="K19:O19"/>
     <mergeCell ref="B19:J19"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B20:J21"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="B22:G29"/>
-    <mergeCell ref="H22:J29"/>
-    <mergeCell ref="P15:Q16"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="H15:J16"/>
-    <mergeCell ref="B15:G16"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/application/controllers/excel-templates/Estimate_Sheet.xlsx
+++ b/application/controllers/excel-templates/Estimate_Sheet.xlsx
@@ -28,13 +28,13 @@
     <t>Estimate Sheet</t>
   </si>
   <si>
-    <t>Name: SOLVY TECH SOLUTIONS PVT LTD</t>
+    <t>Name: {estimate:company_name}</t>
   </si>
   <si>
     <t>GSTIN: 09AAPCS1780F1Z0</t>
   </si>
   <si>
-    <t>Address: H-211 Sector-63, Noida, Gautam Buddha Nagar, Pincode -201301, UTTAR PRADESH</t>
+    <t>{estimate:company_address}</t>
   </si>
   <si>
     <t>247around Booking ID: {estimate:booking_id}</t>
@@ -43,7 +43,7 @@
     <t>Date: {estimate:date}</t>
   </si>
   <si>
-    <t>Zopper Order ID: {estimate:order_id}</t>
+    <t>Order ID: {estimate:order_id}</t>
   </si>
   <si>
     <t>Customer Name</t>
@@ -669,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -735,7 +735,7 @@
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -744,7 +744,7 @@
     </xf>
     <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="17" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -760,6 +760,9 @@
     </xf>
     <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -802,17 +805,17 @@
     </xf>
     <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="38" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="39" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -878,7 +881,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -930,7 +933,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -966,7 +969,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1152,7 +1155,7 @@
       <c r="Q7" s="30"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" ht="15.0" customHeight="1">
+    <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="31" t="s">
         <v>7</v>
@@ -1220,7 +1223,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1"/>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="42" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="32"/>
@@ -1240,9 +1243,9 @@
       <c r="Q11" s="41"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" ht="15.0" customHeight="1">
+    <row r="12">
       <c r="A12" s="1"/>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="3"/>
@@ -1250,17 +1253,17 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="43" t="s">
+      <c r="H12" s="44" t="s">
         <v>12</v>
       </c>
       <c r="I12" s="38"/>
-      <c r="J12" s="43" t="s">
+      <c r="J12" s="44" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
       <c r="M12" s="38"/>
-      <c r="N12" s="43" t="s">
+      <c r="N12" s="44" t="s">
         <v>14</v>
       </c>
       <c r="O12" s="32"/>
@@ -1268,29 +1271,29 @@
       <c r="Q12" s="33"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" ht="15.0" customHeight="1">
+    <row r="13">
       <c r="A13" s="1"/>
-      <c r="B13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="47"/>
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="46"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="47"/>
       <c r="O13" s="35"/>
       <c r="P13" s="35"/>
       <c r="Q13" s="36"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" ht="15.0" customHeight="1">
+    <row r="14" ht="23.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="24"/>
@@ -1298,49 +1301,49 @@
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="49" t="s">
+      <c r="I14" s="46"/>
+      <c r="J14" s="50" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="49" t="s">
+      <c r="M14" s="46"/>
+      <c r="N14" s="50" t="s">
         <v>18</v>
       </c>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="50"/>
-    </row>
-    <row r="15" ht="15.0" customHeight="1">
+      <c r="Q14" s="46"/>
+      <c r="R14" s="51"/>
+    </row>
+    <row r="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="52" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="51" t="s">
+      <c r="G15" s="53"/>
+      <c r="H15" s="52" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53" t="s">
+      <c r="J15" s="53"/>
+      <c r="K15" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="52"/>
-      <c r="M15" s="54" t="s">
+      <c r="L15" s="53"/>
+      <c r="M15" s="55" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="27"/>
       <c r="O15" s="28"/>
-      <c r="P15" s="55" t="s">
+      <c r="P15" s="56" t="s">
         <v>23</v>
       </c>
       <c r="Q15" s="4"/>
@@ -1348,50 +1351,50 @@
     </row>
     <row r="16">
       <c r="A16" s="1"/>
-      <c r="B16" s="44"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="44"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="45"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="58" t="s">
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="59" t="s">
+      <c r="N16" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="60"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="45"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="46"/>
       <c r="R16" s="1"/>
     </row>
     <row r="17" ht="28.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="62"/>
-      <c r="H17" s="63" t="s">
+      <c r="G17" s="63"/>
+      <c r="H17" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="62"/>
-      <c r="K17" s="64" t="s">
+      <c r="J17" s="63"/>
+      <c r="K17" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="62"/>
-      <c r="M17" s="65" t="s">
+      <c r="L17" s="63"/>
+      <c r="M17" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="64" t="s">
+      <c r="N17" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="62"/>
-      <c r="P17" s="64" t="s">
+      <c r="O17" s="63"/>
+      <c r="P17" s="65" t="s">
         <v>31</v>
       </c>
       <c r="Q17" s="9"/>
@@ -1399,27 +1402,27 @@
     </row>
     <row r="18" ht="18.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="67" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="69"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="69" t="s">
+      <c r="J18" s="68"/>
+      <c r="K18" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="L18" s="67"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="69" t="s">
+      <c r="L18" s="68"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="67"/>
-      <c r="P18" s="69" t="s">
+      <c r="O18" s="68"/>
+      <c r="P18" s="70" t="s">
         <v>34</v>
       </c>
       <c r="Q18" s="25"/>
@@ -1427,7 +1430,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1"/>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="72" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="19"/>
@@ -1438,14 +1441,14 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
-      <c r="K19" s="72" t="s">
+      <c r="K19" s="73" t="s">
         <v>36</v>
       </c>
       <c r="L19" s="35"/>
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="73" t="s">
+      <c r="O19" s="48"/>
+      <c r="P19" s="74" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="36"/>
@@ -1453,7 +1456,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1"/>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="75" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="3"/>
@@ -1464,14 +1467,14 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="75" t="s">
+      <c r="K20" s="76" t="s">
         <v>38</v>
       </c>
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
       <c r="N20" s="40"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="77" t="s">
+      <c r="O20" s="77"/>
+      <c r="P20" s="78" t="s">
         <v>33</v>
       </c>
       <c r="Q20" s="41"/>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1"/>
-      <c r="B21" s="44"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -1487,23 +1490,23 @@
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="78" t="s">
+      <c r="J21" s="46"/>
+      <c r="K21" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="80" t="s">
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="Q21" s="81"/>
+      <c r="Q21" s="82"/>
       <c r="R21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="83" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="3"/>
@@ -1511,17 +1514,17 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="83"/>
+      <c r="H22" s="84"/>
       <c r="I22" s="3"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="84" t="s">
+      <c r="K22" s="85" t="s">
         <v>41</v>
       </c>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
       <c r="O22" s="25"/>
-      <c r="P22" s="85">
+      <c r="P22" s="86">
         <v>0.0</v>
       </c>
       <c r="Q22" s="25"/>
@@ -1533,7 +1536,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="51" t="s">
+      <c r="K23" s="52" t="s">
         <v>42</v>
       </c>
       <c r="L23" s="3"/>
@@ -1560,7 +1563,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="83"/>
+      <c r="K25" s="84"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -1595,27 +1598,27 @@
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="44"/>
+      <c r="K28" s="45"/>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
       <c r="P28" s="19"/>
-      <c r="Q28" s="45"/>
+      <c r="Q28" s="46"/>
       <c r="R28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="44"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="44"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="45"/>
       <c r="I29" s="19"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="71" t="s">
+      <c r="J29" s="46"/>
+      <c r="K29" s="72" t="s">
         <v>43</v>
       </c>
       <c r="L29" s="19"/>
@@ -1623,7 +1626,7 @@
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
-      <c r="Q29" s="45"/>
+      <c r="Q29" s="46"/>
       <c r="R29" s="1"/>
     </row>
     <row r="30" ht="3.75" customHeight="1">
@@ -1646,67 +1649,67 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" ht="15.0" customHeight="1">
-      <c r="B31" s="86" t="s">
+    <row r="31">
+      <c r="B31" s="87" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B8:Q9"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B6:Q6"/>
     <mergeCell ref="H15:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="P15:Q16"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B12:G13"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G16"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="P15:Q16"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B7:K7"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="G4:M4"/>
     <mergeCell ref="O3:Q4"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="F3:N3"/>
     <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="B8:Q9"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="J12:M13"/>
+    <mergeCell ref="N12:Q13"/>
     <mergeCell ref="K25:Q28"/>
-    <mergeCell ref="B22:G29"/>
-    <mergeCell ref="H22:J29"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="K29:Q29"/>
     <mergeCell ref="K23:Q24"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="B20:J21"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B12:G13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="J12:M13"/>
-    <mergeCell ref="N12:Q13"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="B20:J21"/>
+    <mergeCell ref="B19:J19"/>
     <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="H22:J29"/>
+    <mergeCell ref="B22:G29"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="P22:Q22"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/application/controllers/excel-templates/Estimate_Sheet.xlsx
+++ b/application/controllers/excel-templates/Estimate_Sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/Excel Template new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\247around-adminp-aws\application\controllers\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515F0CA3-5F71-4A4C-BEEB-F026095EAB30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7180"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tax Invoice - Inter State" sheetId="1" r:id="rId1"/>
@@ -153,14 +154,14 @@
     <t>This is a computer generated estimate, no signature is required.</t>
   </si>
   <si>
-    <t>A-1/7a, A BLOCK, KRISHNA NAGAR, DELHI 110051</t>
+    <t>A-1/7, F/F A BLOCK, KRISHNA NAGAR, DELHI, 110051</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -862,114 +863,113 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,7 +981,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -989,30 +988,32 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1461,36 +1462,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3:N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" customWidth="1"/>
+    <col min="1" max="1" width="0.77734375" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" customWidth="1"/>
     <col min="3" max="3" width="4.33203125" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" customWidth="1"/>
     <col min="5" max="6" width="3.6640625" customWidth="1"/>
-    <col min="7" max="7" width="2.1640625" customWidth="1"/>
+    <col min="7" max="7" width="2.109375" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" customWidth="1"/>
     <col min="9" max="9" width="4.6640625" customWidth="1"/>
-    <col min="10" max="10" width="4.5" customWidth="1"/>
-    <col min="11" max="11" width="4.1640625" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="11" max="11" width="4.109375" customWidth="1"/>
     <col min="12" max="12" width="4" customWidth="1"/>
-    <col min="13" max="13" width="3.5" customWidth="1"/>
+    <col min="13" max="13" width="3.44140625" customWidth="1"/>
     <col min="14" max="14" width="4.33203125" customWidth="1"/>
     <col min="15" max="15" width="2.6640625" customWidth="1"/>
-    <col min="16" max="16" width="3.83203125" customWidth="1"/>
-    <col min="17" max="17" width="3.1640625" customWidth="1"/>
-    <col min="18" max="18" width="0.83203125" customWidth="1"/>
+    <col min="16" max="16" width="3.77734375" customWidth="1"/>
+    <col min="17" max="17" width="3.109375" customWidth="1"/>
+    <col min="18" max="18" width="0.77734375" customWidth="1"/>
     <col min="19" max="26" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="3.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1510,143 +1511,143 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="20.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="18"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="35"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="64"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15.6">
       <c r="A4" s="1"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="35"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="64"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="15.6">
       <c r="A5" s="1"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="14.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="20"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="24"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="14.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="54" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="56"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="59"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="14.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="54" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="38"/>
@@ -1663,32 +1664,32 @@
       <c r="N8" s="38"/>
       <c r="O8" s="38"/>
       <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
+      <c r="Q8" s="55"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="9.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="42"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="57"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="14.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="38"/>
@@ -1699,20 +1700,20 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="47" t="s">
+      <c r="K10" s="35"/>
+      <c r="L10" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="32"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="14.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="52" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="38"/>
@@ -1723,452 +1724,452 @@
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="32"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="51"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="14.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="37" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="37" t="s">
+      <c r="I12" s="35"/>
+      <c r="J12" s="34" t="s">
         <v>12</v>
       </c>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="37" t="s">
+      <c r="M12" s="35"/>
+      <c r="N12" s="34" t="s">
         <v>13</v>
       </c>
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
-      <c r="Q12" s="39"/>
+      <c r="Q12" s="55"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="14.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="42"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="57"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="14.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="79" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="79" t="s">
+      <c r="I14" s="21"/>
+      <c r="J14" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="79" t="s">
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="29"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="21"/>
       <c r="R14" s="12"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="14.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="43" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="86" t="s">
+      <c r="I15" s="17"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="63"/>
-      <c r="M15" s="82" t="s">
+      <c r="L15" s="26"/>
+      <c r="M15" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="55"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="80" t="s">
+      <c r="N15" s="32"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="26"/>
+      <c r="Q15" s="18"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="14.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="64"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="27"/>
       <c r="M16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="83" t="s">
+      <c r="N16" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="75"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="29"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="21"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="28.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="85" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="84" t="s">
+      <c r="I17" s="29"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="66"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="84" t="s">
+      <c r="N17" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="O17" s="66"/>
-      <c r="P17" s="84" t="s">
+      <c r="O17" s="30"/>
+      <c r="P17" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="Q17" s="35"/>
+      <c r="Q17" s="64"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="18.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="45" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="23"/>
+      <c r="L18" s="69"/>
       <c r="M18" s="15"/>
-      <c r="N18" s="45" t="s">
+      <c r="N18" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="O18" s="23"/>
-      <c r="P18" s="45" t="s">
+      <c r="O18" s="69"/>
+      <c r="P18" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" s="20"/>
+      <c r="Q18" s="24"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="14.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
       <c r="K19" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="70" t="s">
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" s="42"/>
+      <c r="Q19" s="57"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="14.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
       <c r="K20" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
       <c r="O20" s="78"/>
-      <c r="P20" s="31" t="s">
+      <c r="P20" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="Q20" s="32"/>
+      <c r="Q20" s="51"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="14.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="73" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="71" t="s">
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="Q21" s="72"/>
+      <c r="Q21" s="73"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="14.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="18" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="21">
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="82">
         <v>0</v>
       </c>
-      <c r="Q22" s="20"/>
+      <c r="Q22" s="24"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="14.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="43" t="s">
+      <c r="B23" s="61"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="26"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="18"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="14.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="35"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="64"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="14.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="26"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="18"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="14.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="35"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="64"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" ht="3.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="3.75" hidden="1" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="35"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="64"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="0.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="29"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="21"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="14.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="29"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="21"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="3.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2188,28 +2189,66 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="16" t="s">
+    <row r="31" spans="1:18" ht="14.4">
+      <c r="B31" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B20:J21"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H22:J29"/>
+    <mergeCell ref="B22:G29"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="N12:Q13"/>
+    <mergeCell ref="K25:Q28"/>
+    <mergeCell ref="K23:Q24"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="P15:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="B8:Q9"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="O3:Q4"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="F3:N3"/>
     <mergeCell ref="B12:G13"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G16"/>
@@ -2226,44 +2265,6 @@
     <mergeCell ref="K15:L16"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="B8:Q9"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="O3:Q4"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="N12:Q13"/>
-    <mergeCell ref="K25:Q28"/>
-    <mergeCell ref="K23:Q24"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="P15:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B20:J21"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H22:J29"/>
-    <mergeCell ref="B22:G29"/>
-    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
